--- a/data/raw/Viipurin suostuntaveroluettelo.xlsx
+++ b/data/raw/Viipurin suostuntaveroluettelo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antth\OneDrive - University of Eastern Finland\Väitöskirja\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentuef-my.sharepoint.com/personal/antth_uef_fi/Documents/Väitöskirja/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4898" documentId="11_AD4D4B9C664837EAC5265082FCD2F5A8683EDF1C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FF7B5F6-5828-4703-AE24-5F3D479758D1}"/>
+  <xr:revisionPtr revIDLastSave="4905" documentId="11_AD4D4B9C664837EAC5265082FCD2F5A8683EDF1C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C1D2AE1C-6D6F-4E1F-8639-A315C6931ADE}"/>
   <bookViews>
-    <workbookView xWindow="-11532" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1880" sheetId="1" r:id="rId1"/>
@@ -1594,17 +1594,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3311" workbookViewId="0">
-      <selection activeCell="B3335" sqref="B3335"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3337" sqref="B3337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
